--- a/natmiOut/YoungD2/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.58028511486753</v>
+        <v>2.215362</v>
       </c>
       <c r="H2">
-        <v>0.58028511486753</v>
+        <v>6.646086</v>
       </c>
       <c r="I2">
-        <v>0.3876740314650512</v>
+        <v>0.6679730466413232</v>
       </c>
       <c r="J2">
-        <v>0.3876740314650512</v>
+        <v>0.667973046641323</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>0.9314582026383437</v>
+        <v>3.874781121462001</v>
       </c>
       <c r="R2">
-        <v>0.9314582026383437</v>
+        <v>34.87303009315801</v>
       </c>
       <c r="S2">
-        <v>0.001338472368988117</v>
+        <v>0.002434577004187892</v>
       </c>
       <c r="T2">
-        <v>0.001338472368988117</v>
+        <v>0.002434577004187891</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.58028511486753</v>
+        <v>2.215362</v>
       </c>
       <c r="H3">
-        <v>0.58028511486753</v>
+        <v>6.646086</v>
       </c>
       <c r="I3">
-        <v>0.3876740314650512</v>
+        <v>0.6679730466413232</v>
       </c>
       <c r="J3">
-        <v>0.3876740314650512</v>
+        <v>0.667973046641323</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>82.65319908075327</v>
+        <v>316.8755295036401</v>
       </c>
       <c r="R3">
-        <v>82.65319908075327</v>
+        <v>2851.87976553276</v>
       </c>
       <c r="S3">
-        <v>0.1187697127629634</v>
+        <v>0.199097149783868</v>
       </c>
       <c r="T3">
-        <v>0.1187697127629634</v>
+        <v>0.1990971497838679</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.58028511486753</v>
+        <v>2.215362</v>
       </c>
       <c r="H4">
-        <v>0.58028511486753</v>
+        <v>6.646086</v>
       </c>
       <c r="I4">
-        <v>0.3876740314650512</v>
+        <v>0.6679730466413232</v>
       </c>
       <c r="J4">
-        <v>0.3876740314650512</v>
+        <v>0.667973046641323</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>70.57112723263042</v>
+        <v>294.210733921944</v>
       </c>
       <c r="R4">
-        <v>70.57112723263042</v>
+        <v>2647.896605297496</v>
       </c>
       <c r="S4">
-        <v>0.1014082044494009</v>
+        <v>0.1848565544061872</v>
       </c>
       <c r="T4">
-        <v>0.1014082044494009</v>
+        <v>0.1848565544061872</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.58028511486753</v>
+        <v>2.215362</v>
       </c>
       <c r="H5">
-        <v>0.58028511486753</v>
+        <v>6.646086</v>
       </c>
       <c r="I5">
-        <v>0.3876740314650512</v>
+        <v>0.6679730466413232</v>
       </c>
       <c r="J5">
-        <v>0.3876740314650512</v>
+        <v>0.667973046641323</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>72.48578579783428</v>
+        <v>278.486918560608</v>
       </c>
       <c r="R5">
-        <v>72.48578579783428</v>
+        <v>2506.382267045472</v>
       </c>
       <c r="S5">
-        <v>0.104159500834266</v>
+        <v>0.1749770700955067</v>
       </c>
       <c r="T5">
-        <v>0.104159500834266</v>
+        <v>0.1749770700955066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.58028511486753</v>
+        <v>2.215362</v>
       </c>
       <c r="H6">
-        <v>0.58028511486753</v>
+        <v>6.646086</v>
       </c>
       <c r="I6">
-        <v>0.3876740314650512</v>
+        <v>0.6679730466413232</v>
       </c>
       <c r="J6">
-        <v>0.3876740314650512</v>
+        <v>0.667973046641323</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>30.56192929940087</v>
+        <v>118.71345519803</v>
       </c>
       <c r="R6">
-        <v>30.56192929940087</v>
+        <v>1068.42109678227</v>
       </c>
       <c r="S6">
-        <v>0.04391640740760009</v>
+        <v>0.07458925783239179</v>
       </c>
       <c r="T6">
-        <v>0.04391640740760009</v>
+        <v>0.07458925783239177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.58028511486753</v>
+        <v>2.215362</v>
       </c>
       <c r="H7">
-        <v>0.58028511486753</v>
+        <v>6.646086</v>
       </c>
       <c r="I7">
-        <v>0.3876740314650512</v>
+        <v>0.6679730466413232</v>
       </c>
       <c r="J7">
-        <v>0.3876740314650512</v>
+        <v>0.667973046641323</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>12.58328487672821</v>
+        <v>50.959339969376</v>
       </c>
       <c r="R7">
-        <v>12.58328487672821</v>
+        <v>458.634059724384</v>
       </c>
       <c r="S7">
-        <v>0.01808173364183269</v>
+        <v>0.03201843751918166</v>
       </c>
       <c r="T7">
-        <v>0.01808173364183269</v>
+        <v>0.03201843751918166</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.33560267018437</v>
+        <v>0.336951</v>
       </c>
       <c r="H8">
-        <v>0.33560267018437</v>
+        <v>1.010853</v>
       </c>
       <c r="I8">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="J8">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>0.5387004628611296</v>
+        <v>0.5893444835010001</v>
       </c>
       <c r="R8">
-        <v>0.5387004628611296</v>
+        <v>5.304100351509001</v>
       </c>
       <c r="S8">
-        <v>0.0007740934404339418</v>
+        <v>0.000370293051942804</v>
       </c>
       <c r="T8">
-        <v>0.0007740934404339418</v>
+        <v>0.000370293051942804</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.33560267018437</v>
+        <v>0.336951</v>
       </c>
       <c r="H9">
-        <v>0.33560267018437</v>
+        <v>1.010853</v>
       </c>
       <c r="I9">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="J9">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>47.80173332054779</v>
+        <v>48.19597273122001</v>
       </c>
       <c r="R9">
-        <v>47.80173332054779</v>
+        <v>433.76375458098</v>
       </c>
       <c r="S9">
-        <v>0.0686893937463491</v>
+        <v>0.03028217678050995</v>
       </c>
       <c r="T9">
-        <v>0.0686893937463491</v>
+        <v>0.03028217678050995</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.33560267018437</v>
+        <v>0.336951</v>
       </c>
       <c r="H10">
-        <v>0.33560267018437</v>
+        <v>1.010853</v>
       </c>
       <c r="I10">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="J10">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>40.81417587731564</v>
+        <v>44.748714208212</v>
       </c>
       <c r="R10">
-        <v>40.81417587731564</v>
+        <v>402.7384278739081</v>
       </c>
       <c r="S10">
-        <v>0.05864852176949365</v>
+        <v>0.02811621796515386</v>
       </c>
       <c r="T10">
-        <v>0.05864852176949365</v>
+        <v>0.02811621796515385</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.33560267018437</v>
+        <v>0.336951</v>
       </c>
       <c r="H11">
-        <v>0.33560267018437</v>
+        <v>1.010853</v>
       </c>
       <c r="I11">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="J11">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>41.92150141524621</v>
+        <v>42.357161355984</v>
       </c>
       <c r="R11">
-        <v>41.92150141524621</v>
+        <v>381.214452203856</v>
       </c>
       <c r="S11">
-        <v>0.06023970925573497</v>
+        <v>0.02661357319740569</v>
       </c>
       <c r="T11">
-        <v>0.06023970925573497</v>
+        <v>0.02661357319740568</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.33560267018437</v>
+        <v>0.336951</v>
       </c>
       <c r="H12">
-        <v>0.33560267018437</v>
+        <v>1.010853</v>
       </c>
       <c r="I12">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="J12">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>17.67521657212644</v>
+        <v>18.056018584065</v>
       </c>
       <c r="R12">
-        <v>17.67521657212644</v>
+        <v>162.504167256585</v>
       </c>
       <c r="S12">
-        <v>0.02539865871668929</v>
+        <v>0.01134483890934405</v>
       </c>
       <c r="T12">
-        <v>0.02539865871668929</v>
+        <v>0.01134483890934404</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.33560267018437</v>
+        <v>0.336951</v>
       </c>
       <c r="H13">
-        <v>0.33560267018437</v>
+        <v>1.010853</v>
       </c>
       <c r="I13">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="J13">
-        <v>0.2242077847378723</v>
+        <v>0.1015970238899288</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>7.277429484443401</v>
+        <v>7.750787709648</v>
       </c>
       <c r="R13">
-        <v>7.277429484443401</v>
+        <v>69.75708938683201</v>
       </c>
       <c r="S13">
-        <v>0.01045740780917135</v>
+        <v>0.00486992398557246</v>
       </c>
       <c r="T13">
-        <v>0.01045740780917135</v>
+        <v>0.00486992398557246</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.110833298083922</v>
+        <v>0.07524499999999999</v>
       </c>
       <c r="H14">
-        <v>0.110833298083922</v>
+        <v>0.225735</v>
       </c>
       <c r="I14">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896992</v>
       </c>
       <c r="J14">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896991</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>0.1779066565395135</v>
+        <v>0.131607342495</v>
       </c>
       <c r="R14">
-        <v>0.1779066565395135</v>
+        <v>1.184466082455</v>
       </c>
       <c r="S14">
-        <v>0.0002556455494865116</v>
+        <v>8.269066034359977E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002556455494865116</v>
+        <v>8.269066034359976E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.110833298083922</v>
+        <v>0.07524499999999999</v>
       </c>
       <c r="H15">
-        <v>0.110833298083922</v>
+        <v>0.225735</v>
       </c>
       <c r="I15">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896992</v>
       </c>
       <c r="J15">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896991</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>15.78659596222475</v>
+        <v>10.76271021056667</v>
       </c>
       <c r="R15">
-        <v>15.78659596222475</v>
+        <v>96.8643918951</v>
       </c>
       <c r="S15">
-        <v>0.02268477794920584</v>
+        <v>0.006762355333118084</v>
       </c>
       <c r="T15">
-        <v>0.02268477794920584</v>
+        <v>0.006762355333118081</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.110833298083922</v>
+        <v>0.07524499999999999</v>
       </c>
       <c r="H16">
-        <v>0.110833298083922</v>
+        <v>0.225735</v>
       </c>
       <c r="I16">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896992</v>
       </c>
       <c r="J16">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896991</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>13.47894436768048</v>
+        <v>9.99289807894</v>
       </c>
       <c r="R16">
-        <v>13.47894436768048</v>
+        <v>89.93608271046</v>
       </c>
       <c r="S16">
-        <v>0.01936876453303742</v>
+        <v>0.006278672034770639</v>
       </c>
       <c r="T16">
-        <v>0.01936876453303742</v>
+        <v>0.006278672034770639</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.110833298083922</v>
+        <v>0.07524499999999999</v>
       </c>
       <c r="H17">
-        <v>0.110833298083922</v>
+        <v>0.225735</v>
       </c>
       <c r="I17">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896992</v>
       </c>
       <c r="J17">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896991</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>13.84464032997415</v>
+        <v>9.458837060079999</v>
       </c>
       <c r="R17">
-        <v>13.84464032997415</v>
+        <v>85.12953354072</v>
       </c>
       <c r="S17">
-        <v>0.01989425664808258</v>
+        <v>0.005943114325936979</v>
       </c>
       <c r="T17">
-        <v>0.01989425664808258</v>
+        <v>0.005943114325936977</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.110833298083922</v>
+        <v>0.07524499999999999</v>
       </c>
       <c r="H18">
-        <v>0.110833298083922</v>
+        <v>0.225735</v>
       </c>
       <c r="I18">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896992</v>
       </c>
       <c r="J18">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896991</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>5.837267462622248</v>
+        <v>4.032114813008333</v>
       </c>
       <c r="R18">
-        <v>5.837267462622248</v>
+        <v>36.289033317075</v>
       </c>
       <c r="S18">
-        <v>0.008387946111787914</v>
+        <v>0.002533431875060744</v>
       </c>
       <c r="T18">
-        <v>0.008387946111787914</v>
+        <v>0.002533431875060744</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.110833298083922</v>
+        <v>0.07524499999999999</v>
       </c>
       <c r="H19">
-        <v>0.110833298083922</v>
+        <v>0.225735</v>
       </c>
       <c r="I19">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896992</v>
       </c>
       <c r="J19">
-        <v>0.07404496580714555</v>
+        <v>0.02268777377896991</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>2.403382282062674</v>
+        <v>1.730839265093333</v>
       </c>
       <c r="R19">
-        <v>2.403382282062674</v>
+        <v>15.57755338584</v>
       </c>
       <c r="S19">
-        <v>0.003453575015545278</v>
+        <v>0.001087509549739873</v>
       </c>
       <c r="T19">
-        <v>0.003453575015545278</v>
+        <v>0.001087509549739873</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,49 +1656,49 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.470116640749335</v>
+        <v>0.04234666666666666</v>
       </c>
       <c r="H20">
-        <v>0.470116640749335</v>
+        <v>0.12704</v>
       </c>
       <c r="I20">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="J20">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>0.7546187038120319</v>
+        <v>0.07406647968000001</v>
       </c>
       <c r="R20">
-        <v>0.7546187038120319</v>
+        <v>0.6665983171200001</v>
       </c>
       <c r="S20">
-        <v>0.001084360287249731</v>
+        <v>4.653696365229546E-05</v>
       </c>
       <c r="T20">
-        <v>0.001084360287249731</v>
+        <v>4.653696365229545E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.470116640749335</v>
+        <v>0.04234666666666666</v>
       </c>
       <c r="H21">
-        <v>0.470116640749335</v>
+        <v>0.12704</v>
       </c>
       <c r="I21">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="J21">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>66.96129765089721</v>
+        <v>6.057078898488889</v>
       </c>
       <c r="R21">
-        <v>66.96129765089721</v>
+        <v>54.5137100864</v>
       </c>
       <c r="S21">
-        <v>0.09622100749496941</v>
+        <v>0.003805743998579402</v>
       </c>
       <c r="T21">
-        <v>0.09622100749496941</v>
+        <v>0.003805743998579401</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.470116640749335</v>
+        <v>0.04234666666666666</v>
       </c>
       <c r="H22">
-        <v>0.470116640749335</v>
+        <v>0.12704</v>
       </c>
       <c r="I22">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="J22">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>57.1730351485439</v>
+        <v>5.623841105493333</v>
       </c>
       <c r="R22">
-        <v>57.1730351485439</v>
+        <v>50.61456994944</v>
       </c>
       <c r="S22">
-        <v>0.08215562177750721</v>
+        <v>0.003533534876280869</v>
       </c>
       <c r="T22">
-        <v>0.08215562177750721</v>
+        <v>0.003533534876280869</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.470116640749335</v>
+        <v>0.04234666666666666</v>
       </c>
       <c r="H23">
-        <v>0.470116640749335</v>
+        <v>0.12704</v>
       </c>
       <c r="I23">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="J23">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>58.72419134709823</v>
+        <v>5.323280218453333</v>
       </c>
       <c r="R23">
-        <v>58.72419134709823</v>
+        <v>47.90952196607999</v>
       </c>
       <c r="S23">
-        <v>0.08438457816639171</v>
+        <v>0.003344688435408926</v>
       </c>
       <c r="T23">
-        <v>0.08438457816639171</v>
+        <v>0.003344688435408925</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.470116640749335</v>
+        <v>0.04234666666666666</v>
       </c>
       <c r="H24">
-        <v>0.470116640749335</v>
+        <v>0.12704</v>
       </c>
       <c r="I24">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="J24">
-        <v>0.314073217989931</v>
+        <v>0.01276831143101574</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>24.75967618148008</v>
+        <v>2.269208876977777</v>
       </c>
       <c r="R24">
-        <v>24.75967618148008</v>
+        <v>20.4228798928</v>
       </c>
       <c r="S24">
-        <v>0.03557877566608492</v>
+        <v>0.001425774405421033</v>
       </c>
       <c r="T24">
-        <v>0.03557877566608492</v>
+        <v>0.001425774405421033</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.04234666666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.12704</v>
+      </c>
+      <c r="I25">
+        <v>0.01276831143101574</v>
+      </c>
+      <c r="J25">
+        <v>0.01276831143101574</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N25">
+        <v>69.008144</v>
+      </c>
+      <c r="O25">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P25">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q25">
+        <v>0.9740882904177777</v>
+      </c>
+      <c r="R25">
+        <v>8.766794613759998</v>
+      </c>
+      <c r="S25">
+        <v>0.000612032751673216</v>
+      </c>
+      <c r="T25">
+        <v>0.000612032751673216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.140989</v>
+      </c>
+      <c r="H26">
+        <v>0.422967</v>
+      </c>
+      <c r="I26">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="J26">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.749051</v>
+      </c>
+      <c r="N26">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P26">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q26">
+        <v>0.2465969514390001</v>
+      </c>
+      <c r="R26">
+        <v>2.219372562951</v>
+      </c>
+      <c r="S26">
+        <v>0.0001549401755755703</v>
+      </c>
+      <c r="T26">
+        <v>0.0001549401755755703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.140989</v>
+      </c>
+      <c r="H27">
+        <v>0.422967</v>
+      </c>
+      <c r="I27">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="J27">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N27">
+        <v>429.10666</v>
+      </c>
+      <c r="O27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q27">
+        <v>20.16643962891334</v>
+      </c>
+      <c r="R27">
+        <v>181.49795666022</v>
+      </c>
+      <c r="S27">
+        <v>0.01267084478783953</v>
+      </c>
+      <c r="T27">
+        <v>0.01267084478783953</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.140989</v>
+      </c>
+      <c r="H28">
+        <v>0.422967</v>
+      </c>
+      <c r="I28">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="J28">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>132.804812</v>
+      </c>
+      <c r="N28">
+        <v>398.414436</v>
+      </c>
+      <c r="O28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q28">
+        <v>18.724017639068</v>
+      </c>
+      <c r="R28">
+        <v>168.516158751612</v>
+      </c>
+      <c r="S28">
+        <v>0.0117645516846339</v>
+      </c>
+      <c r="T28">
+        <v>0.0117645516846339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.140989</v>
+      </c>
+      <c r="H29">
+        <v>0.422967</v>
+      </c>
+      <c r="I29">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="J29">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>125.707184</v>
+      </c>
+      <c r="N29">
+        <v>377.121552</v>
+      </c>
+      <c r="O29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q29">
+        <v>17.723330164976</v>
+      </c>
+      <c r="R29">
+        <v>159.509971484784</v>
+      </c>
+      <c r="S29">
+        <v>0.01113580630871857</v>
+      </c>
+      <c r="T29">
+        <v>0.01113580630871857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.140989</v>
+      </c>
+      <c r="H30">
+        <v>0.422967</v>
+      </c>
+      <c r="I30">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="J30">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N30">
+        <v>160.759445</v>
+      </c>
+      <c r="O30">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P30">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q30">
+        <v>7.555104463701666</v>
+      </c>
+      <c r="R30">
+        <v>67.99594017331501</v>
+      </c>
+      <c r="S30">
+        <v>0.004746973574761635</v>
+      </c>
+      <c r="T30">
+        <v>0.004746973574761635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.140989</v>
+      </c>
+      <c r="H31">
+        <v>0.422967</v>
+      </c>
+      <c r="I31">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="J31">
+        <v>0.04251081849057332</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N31">
+        <v>69.008144</v>
+      </c>
+      <c r="O31">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P31">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q31">
+        <v>3.243129738138667</v>
+      </c>
+      <c r="R31">
+        <v>29.188167643248</v>
+      </c>
+      <c r="S31">
+        <v>0.002037701959044121</v>
+      </c>
+      <c r="T31">
+        <v>0.002037701959044121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.5056503333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.516951</v>
+      </c>
+      <c r="I32">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="J32">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.749051</v>
+      </c>
+      <c r="N32">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P32">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q32">
+        <v>0.8844082211670001</v>
+      </c>
+      <c r="R32">
+        <v>7.959673990503001</v>
+      </c>
+      <c r="S32">
+        <v>0.0005556855600544179</v>
+      </c>
+      <c r="T32">
+        <v>0.0005556855600544178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.5056503333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.516951</v>
+      </c>
+      <c r="I33">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="J33">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N33">
+        <v>429.10666</v>
+      </c>
+      <c r="O33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q33">
+        <v>72.32597522151778</v>
+      </c>
+      <c r="R33">
+        <v>650.93377699366</v>
+      </c>
+      <c r="S33">
+        <v>0.04544338133177758</v>
+      </c>
+      <c r="T33">
+        <v>0.04544338133177755</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.5056503333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.516951</v>
+      </c>
+      <c r="I34">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="J34">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>132.804812</v>
+      </c>
+      <c r="N34">
+        <v>398.414436</v>
+      </c>
+      <c r="O34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q34">
+        <v>67.15279745607066</v>
+      </c>
+      <c r="R34">
+        <v>604.375177104636</v>
+      </c>
+      <c r="S34">
+        <v>0.04219300428297498</v>
+      </c>
+      <c r="T34">
+        <v>0.04219300428297497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.470116640749335</v>
-      </c>
-      <c r="H25">
-        <v>0.470116640749335</v>
-      </c>
-      <c r="I25">
-        <v>0.314073217989931</v>
-      </c>
-      <c r="J25">
-        <v>0.314073217989931</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="N25">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="O25">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="P25">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="Q25">
-        <v>10.19431907570095</v>
-      </c>
-      <c r="R25">
-        <v>10.19431907570095</v>
-      </c>
-      <c r="S25">
-        <v>0.01464887459772798</v>
-      </c>
-      <c r="T25">
-        <v>0.01464887459772798</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.5056503333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.516951</v>
+      </c>
+      <c r="I35">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="J35">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>125.707184</v>
+      </c>
+      <c r="N35">
+        <v>377.121552</v>
+      </c>
+      <c r="O35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q35">
+        <v>63.56387949199466</v>
+      </c>
+      <c r="R35">
+        <v>572.074915427952</v>
+      </c>
+      <c r="S35">
+        <v>0.03993803893877523</v>
+      </c>
+      <c r="T35">
+        <v>0.03993803893877522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.5056503333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.516951</v>
+      </c>
+      <c r="I36">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="J36">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N36">
+        <v>160.759445</v>
+      </c>
+      <c r="O36">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P36">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q36">
+        <v>27.09602231691055</v>
+      </c>
+      <c r="R36">
+        <v>243.864200852195</v>
+      </c>
+      <c r="S36">
+        <v>0.01702479463222482</v>
+      </c>
+      <c r="T36">
+        <v>0.01702479463222482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.5056503333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.516951</v>
+      </c>
+      <c r="I37">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="J37">
+        <v>0.1524630257681892</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N37">
+        <v>69.008144</v>
+      </c>
+      <c r="O37">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P37">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q37">
+        <v>11.63133033877155</v>
+      </c>
+      <c r="R37">
+        <v>104.681973048944</v>
+      </c>
+      <c r="S37">
+        <v>0.007308121022382216</v>
+      </c>
+      <c r="T37">
+        <v>0.007308121022382215</v>
       </c>
     </row>
   </sheetData>
